--- a/full_anno/all_anno/PROCEDUREEVENTS_MV_anno.xlsx
+++ b/full_anno/all_anno/PROCEDUREEVENTS_MV_anno.xlsx
@@ -4,19 +4,21 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="CPA-Short" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="CPA-Long" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="8mDcRNB2sFAib8iLp2cnj4SdULaXtaxvs+2/Qiw/LWM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="CuANwvss00HcVh/diAzxEYw/cbwf5JI3vAp8mIHUuOQ="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="117">
   <si>
     <t>column</t>
   </si>
@@ -142,6 +144,9 @@
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#AdministrativeCase</t>
+  </si>
+  <si>
+    <t>https://browser.ihtsdotools.org/?perspective=full&amp;conceptId1=309904001&amp;edition=MAIN&amp;release=&amp;languages=en</t>
   </si>
   <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#Measurement
@@ -191,8 +196,7 @@
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasEndDateTime</t>
   </si>
   <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasValue
-</t>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasValue</t>
   </si>
   <si>
     <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasUnit</t>
@@ -229,21 +233,12 @@
     <t>CEA</t>
   </si>
   <si>
-    <t>https://www.w3.org/2001/XMLSchema#string</t>
-  </si>
-  <si>
     <t>2165-12-19 14:27:00</t>
   </si>
   <si>
-    <t>https://www.w3.org/2001/XMLSchema#dateTime</t>
-  </si>
-  <si>
     <t>2165-12-19 19:58:00</t>
   </si>
   <si>
-    <t>https://www.w3.org/2001/XMLSchema#double</t>
-  </si>
-  <si>
     <t>min</t>
   </si>
   <si>
@@ -337,13 +332,28 @@
     <t>CPA</t>
   </si>
   <si>
+    <t>PROCEDUREEVENTS_MV</t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
     <t>target</t>
   </si>
   <si>
-    <t>label</t>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasAdministrativeCase</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#hasBodySite</t>
   </si>
   <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSubjectPseudoIdentifier
@@ -354,15 +364,25 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasCareHandling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSourceSystem
+</t>
+  </si>
+  <si>
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#Result</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasResult
 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasCareHandling
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasSourceSystem
+    <t>https://biomedit.ch/rdf/sphn-schema/sphn#Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biomedit.ch/rdf/sphn-schema/sphn#hasQuantity
 </t>
   </si>
 </sst>
@@ -370,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -405,6 +425,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -426,12 +450,70 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="&quot;aptos narrow&quot;"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
@@ -445,20 +527,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <sz val="11.0"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -519,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -535,49 +607,95 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,6 +706,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -796,62 +922,64 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.14"/>
-    <col customWidth="1" min="2" max="3" width="54.57"/>
+    <col customWidth="1" min="2" max="2" width="54.57"/>
+    <col customWidth="1" min="3" max="3" width="62.29"/>
     <col customWidth="1" min="4" max="4" width="64.29"/>
     <col customWidth="1" min="5" max="5" width="8.71"/>
     <col customWidth="1" min="6" max="6" width="55.43"/>
     <col customWidth="1" min="7" max="7" width="11.57"/>
-    <col customWidth="1" min="8" max="8" width="49.86"/>
-    <col customWidth="1" min="9" max="9" width="59.14"/>
-    <col customWidth="1" min="10" max="10" width="8.71"/>
-    <col customWidth="1" min="11" max="11" width="53.43"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
-    <col customWidth="1" min="13" max="13" width="51.57"/>
-    <col customWidth="1" min="14" max="14" width="49.86"/>
-    <col customWidth="1" min="15" max="17" width="47.0"/>
-    <col customWidth="1" min="18" max="18" width="100.71"/>
-    <col customWidth="1" min="19" max="19" width="54.57"/>
-    <col customWidth="1" min="20" max="20" width="14.29"/>
-    <col customWidth="1" min="21" max="21" width="54.57"/>
-    <col customWidth="1" min="22" max="22" width="15.57"/>
-    <col customWidth="1" min="23" max="23" width="51.57"/>
-    <col customWidth="1" min="24" max="24" width="18.86"/>
-    <col customWidth="1" min="25" max="25" width="49.86"/>
-    <col customWidth="1" min="26" max="26" width="40.57"/>
-    <col customWidth="1" min="27" max="27" width="51.57"/>
-    <col customWidth="1" min="28" max="28" width="8.71"/>
-    <col customWidth="1" min="29" max="29" width="10.71"/>
-    <col customWidth="1" min="30" max="30" width="8.71"/>
-    <col customWidth="1" min="31" max="31" width="52.57"/>
-    <col customWidth="1" min="32" max="32" width="99.71"/>
-    <col customWidth="1" min="33" max="33" width="56.71"/>
-    <col customWidth="1" min="34" max="34" width="27.14"/>
-    <col customWidth="1" min="35" max="35" width="52.14"/>
-    <col customWidth="1" min="36" max="36" width="23.14"/>
-    <col customWidth="1" min="37" max="37" width="10.0"/>
-    <col customWidth="1" min="38" max="38" width="8.71"/>
-    <col customWidth="1" min="39" max="40" width="18.29"/>
-    <col customWidth="1" min="41" max="42" width="12.57"/>
-    <col customWidth="1" min="43" max="44" width="16.14"/>
-    <col customWidth="1" min="45" max="46" width="19.0"/>
-    <col customWidth="1" min="47" max="48" width="21.0"/>
-    <col customWidth="1" min="49" max="50" width="15.14"/>
-    <col customWidth="1" min="51" max="52" width="19.14"/>
-    <col customWidth="1" min="53" max="54" width="17.29"/>
-    <col customWidth="1" min="55" max="56" width="22.71"/>
-    <col customWidth="1" min="57" max="58" width="16.0"/>
-    <col customWidth="1" min="59" max="60" width="14.29"/>
-    <col customWidth="1" min="61" max="62" width="21.0"/>
-    <col customWidth="1" min="63" max="63" width="54.29"/>
-    <col customWidth="1" min="64" max="64" width="18.0"/>
-    <col customWidth="1" min="65" max="66" width="19.14"/>
-    <col customWidth="1" min="67" max="67" width="21.86"/>
-    <col customWidth="1" min="68" max="68" width="8.71"/>
-    <col customWidth="1" min="69" max="69" width="51.57"/>
-    <col customWidth="1" min="70" max="70" width="18.43"/>
-    <col customWidth="1" min="71" max="71" width="55.29"/>
-    <col customWidth="1" min="72" max="72" width="99.71"/>
-    <col customWidth="1" min="73" max="73" width="18.43"/>
+    <col customWidth="1" min="8" max="8" width="99.71"/>
+    <col customWidth="1" min="9" max="9" width="49.86"/>
+    <col customWidth="1" min="10" max="10" width="59.14"/>
+    <col customWidth="1" min="11" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="53.43"/>
+    <col customWidth="1" min="13" max="13" width="8.71"/>
+    <col customWidth="1" min="14" max="14" width="51.57"/>
+    <col customWidth="1" min="15" max="15" width="49.86"/>
+    <col customWidth="1" min="16" max="18" width="47.0"/>
+    <col customWidth="1" min="19" max="19" width="100.71"/>
+    <col customWidth="1" min="20" max="20" width="54.57"/>
+    <col customWidth="1" min="21" max="21" width="14.29"/>
+    <col customWidth="1" min="22" max="22" width="54.57"/>
+    <col customWidth="1" min="23" max="23" width="15.57"/>
+    <col customWidth="1" min="24" max="24" width="51.57"/>
+    <col customWidth="1" min="25" max="25" width="18.86"/>
+    <col customWidth="1" min="26" max="26" width="49.86"/>
+    <col customWidth="1" min="27" max="27" width="40.57"/>
+    <col customWidth="1" min="28" max="28" width="51.57"/>
+    <col customWidth="1" min="29" max="29" width="8.71"/>
+    <col customWidth="1" min="30" max="30" width="10.71"/>
+    <col customWidth="1" min="31" max="31" width="8.71"/>
+    <col customWidth="1" min="32" max="32" width="52.57"/>
+    <col customWidth="1" min="33" max="33" width="99.71"/>
+    <col customWidth="1" min="34" max="34" width="56.71"/>
+    <col customWidth="1" min="35" max="35" width="27.14"/>
+    <col customWidth="1" min="36" max="36" width="52.14"/>
+    <col customWidth="1" min="37" max="37" width="44.71"/>
+    <col customWidth="1" min="38" max="38" width="10.0"/>
+    <col customWidth="1" min="39" max="39" width="8.71"/>
+    <col customWidth="1" min="40" max="41" width="18.29"/>
+    <col customWidth="1" min="42" max="43" width="12.57"/>
+    <col customWidth="1" min="44" max="45" width="16.14"/>
+    <col customWidth="1" min="46" max="47" width="19.0"/>
+    <col customWidth="1" min="48" max="49" width="21.0"/>
+    <col customWidth="1" min="50" max="51" width="15.14"/>
+    <col customWidth="1" min="52" max="53" width="19.14"/>
+    <col customWidth="1" min="54" max="55" width="17.29"/>
+    <col customWidth="1" min="56" max="57" width="22.71"/>
+    <col customWidth="1" min="58" max="59" width="16.0"/>
+    <col customWidth="1" min="60" max="61" width="14.29"/>
+    <col customWidth="1" min="62" max="63" width="21.0"/>
+    <col customWidth="1" min="64" max="64" width="54.29"/>
+    <col customWidth="1" min="65" max="65" width="18.0"/>
+    <col customWidth="1" min="66" max="67" width="19.14"/>
+    <col customWidth="1" min="68" max="68" width="21.86"/>
+    <col customWidth="1" min="69" max="69" width="8.71"/>
+    <col customWidth="1" min="70" max="70" width="51.57"/>
+    <col customWidth="1" min="71" max="71" width="18.43"/>
+    <col customWidth="1" min="72" max="72" width="55.29"/>
+    <col customWidth="1" min="73" max="73" width="99.71"/>
+    <col customWidth="1" min="74" max="74" width="18.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -873,135 +1001,136 @@
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="2"/>
+      <c r="X1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2" t="s">
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2" t="s">
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2" t="s">
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2" t="s">
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2" t="s">
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2" t="s">
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2" t="s">
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2" t="s">
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2" t="s">
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1019,1115 +1148,724 @@
       <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="6"/>
-      <c r="S2" s="3" t="s">
+      <c r="N2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="5" t="s">
+      <c r="S2" s="7"/>
+      <c r="T2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="V2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AB2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AF2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AI2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="BK2" s="5" t="s">
+      <c r="AH2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="BQ2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS2" s="5" t="s">
+      <c r="AJ2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL2" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="BR2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="H3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="N3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="3"/>
+      <c r="P3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="V3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE3" s="5" t="s">
+      <c r="X3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AG3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" s="5" t="s">
+      <c r="Z3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="BK3" s="5" t="s">
+      <c r="AH3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="BQ3" s="5" t="s">
+      <c r="BL3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="BS3" s="5" t="s">
+      <c r="BR3" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="BT3" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="7">
         <v>27819.0</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="14"/>
+      <c r="D4" s="7">
         <v>42412.0</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="14"/>
+      <c r="F4" s="7">
         <v>114867.0</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4" s="14"/>
+      <c r="H4" s="7">
         <v>241992.0</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="7">
+        <v>224277.0</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="7">
+        <v>331.0</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="S4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="7">
+        <v>21290.0</v>
+      </c>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="7">
+        <v>4696882.0</v>
+      </c>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="7">
+        <v>4696882.0</v>
+      </c>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ4" s="7">
+        <v>7039.0</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF4" s="7">
+        <v>13083.0</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU4" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7">
+        <v>27820.0</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="7">
+        <v>42412.0</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="7">
+        <v>114867.0</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="7">
+        <v>241992.0</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="15"/>
+      <c r="L5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" s="15"/>
+      <c r="N5" s="7">
         <v>224277.0</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="6">
-        <v>331.0</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="O5" s="16"/>
+      <c r="P5" s="7">
+        <v>269.0</v>
+      </c>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R4" s="5" t="s">
+      <c r="T5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="X5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="7">
+        <v>16053.0</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="7">
+        <v>145264.0</v>
+      </c>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="7">
+        <v>145264.0</v>
+      </c>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="AG5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>21290.0</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>4696882.0</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>4696882.0</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AJ5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AR5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AI4" s="6" t="s">
+      <c r="AZ5" s="7">
+        <v>2107.0</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD5" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AJ4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK4" s="6">
+      <c r="BF5" s="7">
+        <v>13083.0</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM5" s="15"/>
+      <c r="BN5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7">
+        <v>27821.0</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="7">
+        <v>42412.0</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="7">
+        <v>114867.0</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="7">
+        <v>241992.0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="15"/>
+      <c r="L6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="7">
+        <v>224277.0</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="7">
+        <v>26.0</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="7">
+        <v>16053.0</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="7">
+        <v>3847956.0</v>
+      </c>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="7">
+        <v>3847956.0</v>
+      </c>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="7">
         <v>1.0</v>
       </c>
-      <c r="AM4" s="6">
+      <c r="AN6" s="7">
         <v>0.0</v>
       </c>
-      <c r="AO4" s="6">
+      <c r="AP6" s="7">
         <v>0.0</v>
       </c>
-      <c r="AQ4" s="6" t="s">
+      <c r="AR6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>2107.0</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF6" s="7">
+        <v>13083.0</v>
+      </c>
+      <c r="BH6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AY4" s="6">
-        <v>7039.0</v>
-      </c>
-      <c r="BA4" s="6" t="s">
+      <c r="BJ6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL6" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="BC4" s="6" t="s">
+      <c r="BM6" s="15"/>
+      <c r="BN6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7">
+        <v>27822.0</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="7">
+        <v>42412.0</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="7">
+        <v>114867.0</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="7">
+        <v>241992.0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="15"/>
+      <c r="L7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="7">
+        <v>224277.0</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="7">
+        <v>1986.0</v>
+      </c>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="7">
+        <v>20889.0</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="7">
+        <v>9669604.0</v>
+      </c>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="7">
+        <v>9669604.0</v>
+      </c>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK7" s="15"/>
+      <c r="AL7" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>6937.0</v>
+      </c>
+      <c r="BB7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF7" s="7">
+        <v>13083.0</v>
+      </c>
+      <c r="BH7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="BE4" s="6">
-        <v>13083.0</v>
-      </c>
-      <c r="BG4" s="6" t="s">
+      <c r="BM7" s="15"/>
+      <c r="BN7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="BI4" s="6" t="s">
+      <c r="BP7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7">
+        <v>27823.0</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7">
+        <v>42412.0</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="7">
+        <v>114867.0</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="7">
+        <v>241992.0</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="7">
+        <v>224275.0</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="7">
+        <v>1506.0</v>
+      </c>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="7">
+        <v>20889.0</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="7">
+        <v>6253253.0</v>
+      </c>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="7">
+        <v>6253253.0</v>
+      </c>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK8" s="15"/>
+      <c r="AL8" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>6937.0</v>
+      </c>
+      <c r="BB8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF8" s="7">
+        <v>13081.0</v>
+      </c>
+      <c r="BH8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BJ8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="BL8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="BK4" s="6" t="s">
+      <c r="BP8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="BL4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM4" s="6" t="s">
+      <c r="BT8" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="BO4" s="6" t="s">
+      <c r="BU8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="BS4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT4" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6">
-        <v>27820.0</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="6">
-        <v>42412.0</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="6">
-        <v>114867.0</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="6">
-        <v>241992.0</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" s="6">
-        <v>224277.0</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O5" s="6">
-        <v>269.0</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>16053.0</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>145264.0</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>145264.0</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AM5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AO5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY5" s="6">
-        <v>2107.0</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE5" s="6">
-        <v>13083.0</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI5" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO5" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS5" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT5" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6">
-        <v>27821.0</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6">
-        <v>42412.0</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="6">
-        <v>114867.0</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="6">
-        <v>241992.0</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="6">
-        <v>224277.0</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="6">
-        <v>26.0</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>16053.0</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>3847956.0</v>
-      </c>
-      <c r="AB6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>3847956.0</v>
-      </c>
-      <c r="AD6" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AM6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AO6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY6" s="6">
-        <v>2107.0</v>
-      </c>
-      <c r="BA6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE6" s="6">
-        <v>13083.0</v>
-      </c>
-      <c r="BG6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT6" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6">
-        <v>27822.0</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="6">
-        <v>42412.0</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="6">
-        <v>114867.0</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="6">
-        <v>241992.0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="6">
-        <v>224277.0</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1986.0</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>20889.0</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>9669604.0</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC7" s="6">
-        <v>9669604.0</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AM7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AO7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY7" s="6">
-        <v>6937.0</v>
-      </c>
-      <c r="BA7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE7" s="6">
-        <v>13083.0</v>
-      </c>
-      <c r="BG7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BK7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT7" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6">
-        <v>27823.0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="6">
-        <v>42412.0</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="6">
-        <v>114867.0</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="6">
-        <v>241992.0</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="6">
-        <v>224275.0</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1506.0</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>20889.0</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>6253253.0</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>6253253.0</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="AM8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AO8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY8" s="6">
-        <v>6937.0</v>
-      </c>
-      <c r="BA8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BE8" s="6">
-        <v>13081.0</v>
-      </c>
-      <c r="BG8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BI8" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="BK8" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BO8" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="BS8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
+    </row>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -3095,156 +2833,1055 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
     <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" location="MedicalProcedure" ref="B2"/>
     <hyperlink r:id="rId2" location="SubjectPseudoIdentifier" ref="D2"/>
     <hyperlink r:id="rId3" location="AdministrativeCase" ref="F2"/>
-    <hyperlink r:id="rId4" location="Measurement" ref="I2"/>
-    <hyperlink r:id="rId5" location="Measurement" ref="K2"/>
-    <hyperlink r:id="rId6" location="Measurement" ref="M2"/>
-    <hyperlink r:id="rId7" location="Quantity" ref="O2"/>
-    <hyperlink r:id="rId8" location="Quantity" ref="Q2"/>
-    <hyperlink r:id="rId9" location="BodySite" ref="S2"/>
-    <hyperlink r:id="rId10" location="BodySite" ref="U2"/>
-    <hyperlink r:id="rId11" location="Measurement" ref="W2"/>
-    <hyperlink r:id="rId12" location="CareHandling" ref="Y2"/>
-    <hyperlink r:id="rId13" location="BilledProcedur" ref="AA2"/>
-    <hyperlink r:id="rId14" location="BilledProcedure" ref="AE2"/>
-    <hyperlink r:id="rId15" location="BilledDiagnosis_rank" ref="AG2"/>
-    <hyperlink r:id="rId16" location="BilledProcedure" ref="AI2"/>
-    <hyperlink r:id="rId17" location="DataFile" ref="BK2"/>
-    <hyperlink r:id="rId18" location="Measurement" ref="BQ2"/>
-    <hyperlink r:id="rId19" location="DataFile_encoding" ref="BS2"/>
-    <hyperlink r:id="rId20" location="hasIdentifier" ref="B3"/>
-    <hyperlink r:id="rId21" location="hasIdentifier" ref="D3"/>
-    <hyperlink r:id="rId22" location="hasIdentifier" ref="F3"/>
-    <hyperlink r:id="rId23" location="hasIdentifier" ref="H3"/>
-    <hyperlink r:id="rId24" location="hasStartDateTime" ref="I3"/>
-    <hyperlink r:id="rId25" location="hasEndDateTime" ref="K3"/>
-    <hyperlink r:id="rId26" location="hasIdentifier" ref="M3"/>
-    <hyperlink r:id="rId27" location="hasValue" ref="O3"/>
-    <hyperlink r:id="rId28" location="hasUnit" ref="Q3"/>
-    <hyperlink r:id="rId29" location="hasBodySite" ref="S3"/>
-    <hyperlink r:id="rId30" location="hasCategor" ref="U3"/>
-    <hyperlink r:id="rId31" location="hasReportDateTime" ref="W3"/>
-    <hyperlink r:id="rId32" location="hasIdentifier" ref="Y3"/>
-    <hyperlink r:id="rId33" location="hasIdentifier" ref="AA3"/>
-    <hyperlink r:id="rId34" location="hasName" ref="AE3"/>
-    <hyperlink r:id="rId35" location="hasName" ref="AG3"/>
-    <hyperlink r:id="rId36" location="hasDescription" ref="AI3"/>
-    <hyperlink r:id="rId37" location="hasName" ref="BK3"/>
-    <hyperlink r:id="rId38" location="hasUnit" ref="BQ3"/>
-    <hyperlink r:id="rId39" location="hasEncoding" ref="BS3"/>
-    <hyperlink r:id="rId40" location="string" ref="C4"/>
-    <hyperlink r:id="rId41" location="string" ref="E4"/>
-    <hyperlink r:id="rId42" location="string" ref="G4"/>
-    <hyperlink r:id="rId43" location="dateTime" ref="J4"/>
-    <hyperlink r:id="rId44" location="dateTime" ref="L4"/>
-    <hyperlink r:id="rId45" location="string" ref="N4"/>
-    <hyperlink r:id="rId46" location="double" ref="P4"/>
-    <hyperlink r:id="rId47" ref="R4"/>
-    <hyperlink r:id="rId48" location="dateTime" ref="X4"/>
-    <hyperlink r:id="rId49" location="string" ref="Z4"/>
-    <hyperlink r:id="rId50" location="string" ref="AB4"/>
-    <hyperlink r:id="rId51" location="string" ref="AD4"/>
-    <hyperlink r:id="rId52" ref="AF4"/>
-    <hyperlink r:id="rId53" location="string" ref="AJ4"/>
-    <hyperlink r:id="rId54" location="string" ref="BL4"/>
-    <hyperlink r:id="rId55" ref="BT4"/>
-    <hyperlink r:id="rId56" location="string" ref="C5"/>
-    <hyperlink r:id="rId57" location="string" ref="E5"/>
-    <hyperlink r:id="rId58" location="string" ref="G5"/>
-    <hyperlink r:id="rId59" location="dateTime" ref="J5"/>
-    <hyperlink r:id="rId60" location="dateTime" ref="L5"/>
-    <hyperlink r:id="rId61" location="string" ref="N5"/>
-    <hyperlink r:id="rId62" location="double" ref="P5"/>
-    <hyperlink r:id="rId63" ref="R5"/>
-    <hyperlink r:id="rId64" location="dateTime" ref="X5"/>
-    <hyperlink r:id="rId65" location="string" ref="Z5"/>
-    <hyperlink r:id="rId66" location="string" ref="AB5"/>
-    <hyperlink r:id="rId67" location="string" ref="AD5"/>
-    <hyperlink r:id="rId68" ref="AF5"/>
-    <hyperlink r:id="rId69" location="string" ref="AJ5"/>
-    <hyperlink r:id="rId70" location="string" ref="BL5"/>
-    <hyperlink r:id="rId71" ref="BT5"/>
-    <hyperlink r:id="rId72" location="string" ref="C6"/>
-    <hyperlink r:id="rId73" location="string" ref="E6"/>
-    <hyperlink r:id="rId74" location="string" ref="G6"/>
-    <hyperlink r:id="rId75" location="dateTime" ref="J6"/>
-    <hyperlink r:id="rId76" location="dateTime" ref="L6"/>
-    <hyperlink r:id="rId77" location="string" ref="N6"/>
-    <hyperlink r:id="rId78" location="double" ref="P6"/>
-    <hyperlink r:id="rId79" ref="R6"/>
-    <hyperlink r:id="rId80" location="dateTime" ref="X6"/>
-    <hyperlink r:id="rId81" location="string" ref="Z6"/>
-    <hyperlink r:id="rId82" location="string" ref="AB6"/>
-    <hyperlink r:id="rId83" location="string" ref="AD6"/>
-    <hyperlink r:id="rId84" ref="AF6"/>
-    <hyperlink r:id="rId85" location="string" ref="AJ6"/>
-    <hyperlink r:id="rId86" location="string" ref="BL6"/>
-    <hyperlink r:id="rId87" ref="BT6"/>
-    <hyperlink r:id="rId88" location="string" ref="C7"/>
-    <hyperlink r:id="rId89" location="string" ref="E7"/>
-    <hyperlink r:id="rId90" location="string" ref="G7"/>
-    <hyperlink r:id="rId91" location="dateTime" ref="J7"/>
-    <hyperlink r:id="rId92" location="dateTime" ref="L7"/>
-    <hyperlink r:id="rId93" location="string" ref="N7"/>
-    <hyperlink r:id="rId94" location="double" ref="P7"/>
-    <hyperlink r:id="rId95" ref="R7"/>
-    <hyperlink r:id="rId96" location="dateTime" ref="X7"/>
-    <hyperlink r:id="rId97" location="string" ref="Z7"/>
-    <hyperlink r:id="rId98" location="string" ref="AB7"/>
-    <hyperlink r:id="rId99" location="string" ref="AD7"/>
-    <hyperlink r:id="rId100" ref="AF7"/>
-    <hyperlink r:id="rId101" location="string" ref="AJ7"/>
-    <hyperlink r:id="rId102" location="string" ref="BL7"/>
-    <hyperlink r:id="rId103" ref="BT7"/>
-    <hyperlink r:id="rId104" location="string" ref="C8"/>
-    <hyperlink r:id="rId105" location="string" ref="E8"/>
-    <hyperlink r:id="rId106" location="string" ref="G8"/>
-    <hyperlink r:id="rId107" location="dateTime" ref="J8"/>
-    <hyperlink r:id="rId108" location="dateTime" ref="L8"/>
-    <hyperlink r:id="rId109" location="string" ref="N8"/>
-    <hyperlink r:id="rId110" location="double" ref="P8"/>
-    <hyperlink r:id="rId111" ref="R8"/>
-    <hyperlink r:id="rId112" location="dateTime" ref="X8"/>
-    <hyperlink r:id="rId113" location="string" ref="Z8"/>
-    <hyperlink r:id="rId114" location="string" ref="AB8"/>
-    <hyperlink r:id="rId115" location="string" ref="AD8"/>
-    <hyperlink r:id="rId116" ref="AF8"/>
-    <hyperlink r:id="rId117" location="string" ref="AJ8"/>
-    <hyperlink r:id="rId118" location="string" ref="BL8"/>
-    <hyperlink r:id="rId119" ref="BT8"/>
-    <hyperlink r:id="rId120" location="hasSubjectPseudoIdentifier" ref="C11"/>
-    <hyperlink r:id="rId121" location="hasSubjectPseudoIdentifier" ref="C12"/>
-    <hyperlink r:id="rId122" location="hasAdministrativeCase" ref="C13"/>
-    <hyperlink r:id="rId123" location="hasSubjectPseudoIdentifier" ref="C14"/>
-    <hyperlink r:id="rId124" location="hasSubjectPseudoIdentifier" ref="C15"/>
-    <hyperlink r:id="rId125" location="hasAdministrativeCase" ref="C16"/>
-    <hyperlink r:id="rId126" location="hasResult" ref="C17"/>
-    <hyperlink r:id="rId127" location="hasEndDateTime" ref="C18"/>
-    <hyperlink r:id="rId128" location="hasStartDateTime" ref="C19"/>
-    <hyperlink r:id="rId129" location="hasUnit" ref="C20"/>
-    <hyperlink r:id="rId130" location="hasBodySite" ref="C21"/>
-    <hyperlink r:id="rId131" location="hasBodySite" ref="C22"/>
-    <hyperlink r:id="rId132" location="hasSubjectPseudoIdentifier" ref="C23"/>
-    <hyperlink r:id="rId133" location="hasAdministrativeCase" ref="C24"/>
-    <hyperlink r:id="rId134" location="hasBodySite" ref="C25"/>
-    <hyperlink r:id="rId135" location="hasEndDateTime" ref="C26"/>
-    <hyperlink r:id="rId136" location="hasStartDateTime" ref="C27"/>
-    <hyperlink r:id="rId137" location="hasReportDateTime" ref="C28"/>
-    <hyperlink r:id="rId138" location="hasReportDateTime" ref="C29"/>
-    <hyperlink r:id="rId139" location="hasReportDateTime" ref="C30"/>
-    <hyperlink r:id="rId140" location="hasCareHandling" ref="C31"/>
-    <hyperlink r:id="rId141" location="hasDescription" ref="C32"/>
-    <hyperlink r:id="rId142" location="hasName" ref="C33"/>
-    <hyperlink r:id="rId143" location="hasSourceSystem" ref="C34"/>
-    <hyperlink r:id="rId144" location="hasUnit" ref="C35"/>
+    <hyperlink r:id="rId4" ref="H2"/>
+    <hyperlink r:id="rId5" location="Measurement" ref="J2"/>
+    <hyperlink r:id="rId6" location="Measurement" ref="L2"/>
+    <hyperlink r:id="rId7" location="Measurement" ref="N2"/>
+    <hyperlink r:id="rId8" location="Quantity" ref="P2"/>
+    <hyperlink r:id="rId9" location="Quantity" ref="R2"/>
+    <hyperlink r:id="rId10" location="BodySite" ref="T2"/>
+    <hyperlink r:id="rId11" location="BodySite" ref="V2"/>
+    <hyperlink r:id="rId12" location="Measurement" ref="X2"/>
+    <hyperlink r:id="rId13" location="CareHandling" ref="Z2"/>
+    <hyperlink r:id="rId14" location="BilledProcedur" ref="AB2"/>
+    <hyperlink r:id="rId15" location="BilledProcedure" ref="AF2"/>
+    <hyperlink r:id="rId16" location="BilledDiagnosis_rank" ref="AH2"/>
+    <hyperlink r:id="rId17" location="BilledProcedure" ref="AJ2"/>
+    <hyperlink r:id="rId18" location="DataFile" ref="BL2"/>
+    <hyperlink r:id="rId19" location="Measurement" ref="BR2"/>
+    <hyperlink r:id="rId20" location="DataFile_encoding" ref="BT2"/>
+    <hyperlink r:id="rId21" location="hasIdentifier" ref="B3"/>
+    <hyperlink r:id="rId22" location="hasIdentifier" ref="D3"/>
+    <hyperlink r:id="rId23" location="hasIdentifier" ref="F3"/>
+    <hyperlink r:id="rId24" location="hasIdentifier" ref="H3"/>
+    <hyperlink r:id="rId25" location="hasStartDateTime" ref="J3"/>
+    <hyperlink r:id="rId26" location="hasEndDateTime" ref="L3"/>
+    <hyperlink r:id="rId27" location="hasIdentifier" ref="N3"/>
+    <hyperlink r:id="rId28" location="hasValue" ref="P3"/>
+    <hyperlink r:id="rId29" location="hasUnit" ref="R3"/>
+    <hyperlink r:id="rId30" location="hasBodySite" ref="T3"/>
+    <hyperlink r:id="rId31" location="hasCategor" ref="V3"/>
+    <hyperlink r:id="rId32" location="hasReportDateTime" ref="X3"/>
+    <hyperlink r:id="rId33" location="hasIdentifier" ref="Z3"/>
+    <hyperlink r:id="rId34" location="hasIdentifier" ref="AB3"/>
+    <hyperlink r:id="rId35" location="hasName" ref="AF3"/>
+    <hyperlink r:id="rId36" location="hasName" ref="AH3"/>
+    <hyperlink r:id="rId37" location="hasDescription" ref="AJ3"/>
+    <hyperlink r:id="rId38" location="hasName" ref="BL3"/>
+    <hyperlink r:id="rId39" location="hasUnit" ref="BR3"/>
+    <hyperlink r:id="rId40" location="hasEncoding" ref="BT3"/>
+    <hyperlink r:id="rId41" ref="S4"/>
+    <hyperlink r:id="rId42" ref="AG4"/>
+    <hyperlink r:id="rId43" ref="BU4"/>
+    <hyperlink r:id="rId44" ref="S5"/>
+    <hyperlink r:id="rId45" ref="AG5"/>
+    <hyperlink r:id="rId46" ref="BU5"/>
+    <hyperlink r:id="rId47" ref="S6"/>
+    <hyperlink r:id="rId48" ref="AG6"/>
+    <hyperlink r:id="rId49" ref="BU6"/>
+    <hyperlink r:id="rId50" ref="S7"/>
+    <hyperlink r:id="rId51" ref="AG7"/>
+    <hyperlink r:id="rId52" ref="BU7"/>
+    <hyperlink r:id="rId53" ref="S8"/>
+    <hyperlink r:id="rId54" ref="AG8"/>
+    <hyperlink r:id="rId55" ref="BU8"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId145"/>
+  <drawing r:id="rId56"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.57"/>
+    <col customWidth="1" min="4" max="4" width="62.29"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasSubjectPseudoIdentifier" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasSubjectPseudoIdentifier" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasAdministrativeCase" ref="D8"/>
+    <hyperlink r:id="rId6" location="hasValue" ref="D9"/>
+    <hyperlink r:id="rId7" location="hasUnit" ref="D10"/>
+    <hyperlink r:id="rId8" location="hasEndDateTime" ref="D11"/>
+    <hyperlink r:id="rId9" location="hasStartDateTime" ref="D12"/>
+    <hyperlink r:id="rId10" location="hasUnit" ref="D13"/>
+    <hyperlink r:id="rId11" location="hasBodySite" ref="D14"/>
+    <hyperlink r:id="rId12" location="hasBodySite" ref="D15"/>
+    <hyperlink r:id="rId13" location="hasSubjectPseudoIdentifier" ref="D16"/>
+    <hyperlink r:id="rId14" location="hasAdministrativeCase" ref="D17"/>
+    <hyperlink r:id="rId15" location="hasBodySite" ref="D18"/>
+    <hyperlink r:id="rId16" location="hasEndDateTime" ref="D19"/>
+    <hyperlink r:id="rId17" location="hasStartDateTime" ref="D20"/>
+    <hyperlink r:id="rId18" location="hasReportDateTime" ref="D21"/>
+    <hyperlink r:id="rId19" location="hasReportDateTime" ref="D22"/>
+    <hyperlink r:id="rId20" location="hasReportDateTime" ref="D23"/>
+    <hyperlink r:id="rId21" location="hasCareHandling" ref="D24"/>
+    <hyperlink r:id="rId22" location="hasDescription" ref="D25"/>
+    <hyperlink r:id="rId23" location="hasName" ref="D26"/>
+    <hyperlink r:id="rId24" location="hasSourceSystem" ref="D27"/>
+    <hyperlink r:id="rId25" location="hasUnit" ref="D28"/>
+  </hyperlinks>
+  <drawing r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.57"/>
+    <col customWidth="1" min="2" max="3" width="47.86"/>
+    <col customWidth="1" min="4" max="4" width="62.29"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" location="hasSubjectPseudoIdentifier" ref="D4"/>
+    <hyperlink r:id="rId2" location="hasAdministrativeCase" ref="D5"/>
+    <hyperlink r:id="rId3" location="hasSubjectPseudoIdentifier" ref="D6"/>
+    <hyperlink r:id="rId4" location="hasSubjectPseudoIdentifier" ref="D7"/>
+    <hyperlink r:id="rId5" location="hasAdministrativeCase" ref="D8"/>
+    <hyperlink r:id="rId6" location="Result" ref="C9"/>
+    <hyperlink r:id="rId7" location="hasResult" ref="D9"/>
+    <hyperlink r:id="rId8" location="Result" ref="B10"/>
+    <hyperlink r:id="rId9" location="Quantity" ref="C10"/>
+    <hyperlink r:id="rId10" location="hasQuantity" ref="D10"/>
+    <hyperlink r:id="rId11" location="Quantity" ref="B11"/>
+    <hyperlink r:id="rId12" location="hasValue" ref="D11"/>
+    <hyperlink r:id="rId13" location="Result" ref="C12"/>
+    <hyperlink r:id="rId14" location="hasResult" ref="D12"/>
+    <hyperlink r:id="rId15" location="Result" ref="B13"/>
+    <hyperlink r:id="rId16" location="Quantity" ref="C13"/>
+    <hyperlink r:id="rId17" location="hasQuantity" ref="D13"/>
+    <hyperlink r:id="rId18" location="Quantity" ref="B14"/>
+    <hyperlink r:id="rId19" location="hasUnit" ref="D14"/>
+    <hyperlink r:id="rId20" location="hasEndDateTime" ref="D15"/>
+    <hyperlink r:id="rId21" location="hasStartDateTime" ref="D16"/>
+    <hyperlink r:id="rId22" location="hasUnit" ref="D17"/>
+    <hyperlink r:id="rId23" location="hasBodySite" ref="D18"/>
+    <hyperlink r:id="rId24" location="hasBodySite" ref="D19"/>
+    <hyperlink r:id="rId25" location="hasSubjectPseudoIdentifier" ref="D20"/>
+    <hyperlink r:id="rId26" location="hasAdministrativeCase" ref="D21"/>
+    <hyperlink r:id="rId27" location="hasBodySite" ref="D22"/>
+    <hyperlink r:id="rId28" location="hasEndDateTime" ref="D23"/>
+    <hyperlink r:id="rId29" location="hasStartDateTime" ref="D24"/>
+    <hyperlink r:id="rId30" location="hasReportDateTime" ref="D25"/>
+    <hyperlink r:id="rId31" location="hasReportDateTime" ref="D26"/>
+    <hyperlink r:id="rId32" location="hasReportDateTime" ref="D27"/>
+    <hyperlink r:id="rId33" location="hasCareHandling" ref="D28"/>
+    <hyperlink r:id="rId34" location="hasDescription" ref="D29"/>
+    <hyperlink r:id="rId35" location="hasName" ref="D30"/>
+    <hyperlink r:id="rId36" location="hasSourceSystem" ref="D31"/>
+    <hyperlink r:id="rId37" location="hasUnit" ref="D32"/>
+  </hyperlinks>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>